--- a/Amino_acid_property.xlsx
+++ b/Amino_acid_property.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaeung/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaeung/gradcam_coef_cal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528C848D-08BD-F345-A2D1-99551480CA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CF262C-0E31-8B4A-8FA3-189E31C22532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{A35BEA80-DC6F-5D4E-B218-059A1D399BC7}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A35BEA80-DC6F-5D4E-B218-059A1D399BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Amino acid</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>MW</t>
   </si>
 </sst>
 </file>
@@ -520,15 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F02051-E694-774C-8851-E3639FF4B862}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +550,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -561,8 +573,14 @@
       <c r="E2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -578,8 +596,14 @@
       <c r="E3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -595,8 +619,14 @@
       <c r="E4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>2.8</v>
+      </c>
+      <c r="G4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -612,8 +642,14 @@
       <c r="E5">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>3.2</v>
+      </c>
+      <c r="G5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -629,8 +665,14 @@
       <c r="E6">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>5.5</v>
+      </c>
+      <c r="G6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -646,8 +688,14 @@
       <c r="E7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -663,8 +711,14 @@
       <c r="E8">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>7.6</v>
+      </c>
+      <c r="G8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -680,8 +734,14 @@
       <c r="E9">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>5.9</v>
+      </c>
+      <c r="G9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -697,8 +757,14 @@
       <c r="E10">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -714,8 +780,14 @@
       <c r="E11">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -731,8 +803,14 @@
       <c r="E12">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>5.7</v>
+      </c>
+      <c r="G12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -748,8 +826,14 @@
       <c r="E13">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>5.4</v>
+      </c>
+      <c r="G13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -765,8 +849,14 @@
       <c r="E14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>6.5</v>
+      </c>
+      <c r="G14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -782,8 +872,14 @@
       <c r="E15">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>5.7</v>
+      </c>
+      <c r="G15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -799,8 +895,14 @@
       <c r="E16">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>10.8</v>
+      </c>
+      <c r="G16">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -816,8 +918,14 @@
       <c r="E17">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>5.7</v>
+      </c>
+      <c r="G17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -833,8 +941,14 @@
       <c r="E18">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>5.9</v>
+      </c>
+      <c r="G18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -850,8 +964,14 @@
       <c r="E19">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -867,8 +987,14 @@
       <c r="E20">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -883,6 +1009,12 @@
       </c>
       <c r="E21">
         <v>6.2</v>
+      </c>
+      <c r="F21">
+        <v>5.7</v>
+      </c>
+      <c r="G21">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Amino_acid_property.xlsx
+++ b/Amino_acid_property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaeung/gradcam_coef_cal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CF262C-0E31-8B4A-8FA3-189E31C22532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DCF6A8-DDD8-E74D-A1CE-4882C9E3D6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A35BEA80-DC6F-5D4E-B218-059A1D399BC7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{A35BEA80-DC6F-5D4E-B218-059A1D399BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
